--- a/observations/orbit_plans/mtp055/nomad_mtp055_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp055/nomad_mtp055_plan_generic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp055\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD55D9-2989-4091-A83B-601F57603336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B12B2-8336-4BE9-B26A-ECF204E56E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="539">
   <si>
     <t>#orbitType</t>
   </si>
@@ -638,9 +638,6 @@
   </si>
   <si>
     <t>2022 JUN 20 21:37:15</t>
-  </si>
-  <si>
-    <t>irMerged</t>
   </si>
   <si>
     <t>uvisMerged</t>
@@ -2033,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -2238,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -2415,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -2502,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -2832,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I52" t="s">
         <v>8</v>
@@ -2919,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I57" t="s">
         <v>8</v>
@@ -3235,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -3455,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I93" t="s">
         <v>8</v>
@@ -3514,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I97" t="s">
         <v>8</v>
@@ -3859,19 +3856,19 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="I116" t="s">
+        <v>8</v>
+      </c>
+      <c r="L116" t="s">
         <v>207</v>
-      </c>
-      <c r="I116" t="s">
-        <v>8</v>
-      </c>
-      <c r="L116" t="s">
-        <v>208</v>
       </c>
       <c r="M116" t="s">
         <v>203</v>
@@ -3888,16 +3885,16 @@
         <v>195</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I117" t="s">
         <v>8</v>
       </c>
       <c r="L117" t="s">
+        <v>208</v>
+      </c>
+      <c r="M117" t="s">
         <v>209</v>
-      </c>
-      <c r="M117" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -3908,10 +3905,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
+        <v>210</v>
+      </c>
+      <c r="M118" t="s">
         <v>211</v>
-      </c>
-      <c r="M118" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -3925,10 +3922,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -3939,10 +3936,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -3953,10 +3950,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
+        <v>214</v>
+      </c>
+      <c r="M121" t="s">
         <v>215</v>
-      </c>
-      <c r="M121" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -3967,10 +3964,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
+        <v>216</v>
+      </c>
+      <c r="M122" t="s">
         <v>217</v>
-      </c>
-      <c r="M122" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -3978,34 +3975,34 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
       </c>
       <c r="E123" t="s">
+        <v>219</v>
+      </c>
+      <c r="F123" t="s">
+        <v>219</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" t="s">
         <v>220</v>
       </c>
-      <c r="F123" t="s">
-        <v>220</v>
-      </c>
-      <c r="G123" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
+        <v>8</v>
+      </c>
+      <c r="L123" t="s">
         <v>221</v>
       </c>
-      <c r="I123" t="s">
-        <v>8</v>
-      </c>
-      <c r="L123" t="s">
-        <v>222</v>
-      </c>
       <c r="M123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -4016,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,19 +4024,19 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G125" t="s">
         <v>6</v>
@@ -4048,10 +4045,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M125" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,19 +4056,19 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G126" t="s">
         <v>6</v>
@@ -4080,10 +4077,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
+        <v>224</v>
+      </c>
+      <c r="M126" t="s">
         <v>225</v>
-      </c>
-      <c r="M126" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -4097,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M127" t="s">
         <v>27</v>
@@ -4108,19 +4105,19 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G128" t="s">
         <v>6</v>
@@ -4129,7 +4126,7 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M128" t="s">
         <v>27</v>
@@ -4146,7 +4143,7 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M129" t="s">
         <v>27</v>
@@ -4157,19 +4154,19 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G130" t="s">
         <v>6</v>
@@ -4178,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M130" t="s">
         <v>27</v>
@@ -4189,31 +4186,31 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
       </c>
       <c r="E131" t="s">
+        <v>219</v>
+      </c>
+      <c r="F131" t="s">
+        <v>219</v>
+      </c>
+      <c r="G131" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
         <v>220</v>
       </c>
-      <c r="F131" t="s">
-        <v>220</v>
-      </c>
-      <c r="G131" t="s">
-        <v>6</v>
-      </c>
-      <c r="H131" t="s">
-        <v>221</v>
-      </c>
       <c r="I131" t="s">
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M131" t="s">
         <v>27</v>
@@ -4227,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M132" t="s">
         <v>27</v>
@@ -4244,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M133" t="s">
         <v>27</v>
@@ -4258,10 +4255,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
+        <v>233</v>
+      </c>
+      <c r="M134" t="s">
         <v>234</v>
-      </c>
-      <c r="M134" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -4269,19 +4266,19 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G135" t="s">
         <v>6</v>
@@ -4290,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -4304,10 +4301,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -4315,34 +4312,34 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
       </c>
       <c r="E137" t="s">
+        <v>219</v>
+      </c>
+      <c r="F137" t="s">
+        <v>219</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" t="s">
         <v>220</v>
       </c>
-      <c r="F137" t="s">
-        <v>220</v>
-      </c>
-      <c r="G137" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" t="s">
-        <v>221</v>
-      </c>
       <c r="I137" t="s">
         <v>8</v>
       </c>
       <c r="L137" t="s">
+        <v>237</v>
+      </c>
+      <c r="M137" t="s">
         <v>238</v>
-      </c>
-      <c r="M137" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -4350,19 +4347,19 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
@@ -4371,10 +4368,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -4385,10 +4382,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
+        <v>240</v>
+      </c>
+      <c r="M139" t="s">
         <v>241</v>
-      </c>
-      <c r="M139" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -4396,19 +4393,19 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
@@ -4417,10 +4414,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -4434,10 +4431,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -4445,19 +4442,19 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G142" t="s">
         <v>6</v>
@@ -4466,10 +4463,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M142" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -4480,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
+        <v>245</v>
+      </c>
+      <c r="M143" t="s">
         <v>246</v>
-      </c>
-      <c r="M143" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -4494,10 +4491,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M144" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -4505,19 +4502,19 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G145" t="s">
         <v>6</v>
@@ -4526,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4537,31 +4534,31 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
       </c>
       <c r="E146" t="s">
+        <v>219</v>
+      </c>
+      <c r="F146" t="s">
+        <v>219</v>
+      </c>
+      <c r="G146" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" t="s">
         <v>220</v>
       </c>
-      <c r="F146" t="s">
-        <v>220</v>
-      </c>
-      <c r="G146" t="s">
-        <v>6</v>
-      </c>
-      <c r="H146" t="s">
-        <v>221</v>
-      </c>
       <c r="I146" t="s">
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M146" t="s">
         <v>27</v>
@@ -4575,7 +4572,7 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M147" t="s">
         <v>27</v>
@@ -4592,7 +4589,7 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M148" t="s">
         <v>27</v>
@@ -4603,19 +4600,19 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G149" t="s">
         <v>6</v>
@@ -4624,7 +4621,7 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M149" t="s">
         <v>27</v>
@@ -4641,7 +4638,7 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M150" t="s">
         <v>27</v>
@@ -4661,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G151" t="s">
         <v>6</v>
@@ -4673,10 +4670,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
+        <v>254</v>
+      </c>
+      <c r="M151" t="s">
         <v>255</v>
-      </c>
-      <c r="M151" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -4687,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
+        <v>256</v>
+      </c>
+      <c r="M152" t="s">
         <v>257</v>
-      </c>
-      <c r="M152" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -4698,31 +4695,31 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
+        <v>258</v>
+      </c>
+      <c r="C153" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>219</v>
+      </c>
+      <c r="F153" t="s">
+        <v>219</v>
+      </c>
+      <c r="G153" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" t="s">
+        <v>8</v>
+      </c>
+      <c r="L153" t="s">
         <v>259</v>
       </c>
-      <c r="C153" t="s">
-        <v>259</v>
-      </c>
-      <c r="D153" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" t="s">
-        <v>220</v>
-      </c>
-      <c r="F153" t="s">
-        <v>220</v>
-      </c>
-      <c r="G153" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" t="s">
-        <v>8</v>
-      </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>260</v>
-      </c>
-      <c r="M153" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -4740,7 +4737,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>120</v>
@@ -4754,10 +4751,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
+        <v>262</v>
+      </c>
+      <c r="M155" t="s">
         <v>263</v>
-      </c>
-      <c r="M155" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -4765,19 +4762,19 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -4786,10 +4783,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
+        <v>264</v>
+      </c>
+      <c r="M156" t="s">
         <v>265</v>
-      </c>
-      <c r="M156" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -4797,16 +4794,16 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
+        <v>266</v>
+      </c>
+      <c r="I157" t="s">
+        <v>8</v>
+      </c>
+      <c r="L157" t="s">
         <v>267</v>
       </c>
-      <c r="I157" t="s">
-        <v>8</v>
-      </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>268</v>
-      </c>
-      <c r="M157" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -4817,10 +4814,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,10 +4828,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
+        <v>270</v>
+      </c>
+      <c r="M159" t="s">
         <v>271</v>
-      </c>
-      <c r="M159" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -4842,10 +4839,10 @@
         <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C160" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -4857,7 +4854,7 @@
         <v>139</v>
       </c>
       <c r="L160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M160" t="s">
         <v>141</v>
@@ -4871,10 +4868,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
+        <v>273</v>
+      </c>
+      <c r="M161" t="s">
         <v>274</v>
-      </c>
-      <c r="M161" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -4882,31 +4879,31 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
+        <v>219</v>
+      </c>
+      <c r="F162" t="s">
+        <v>219</v>
+      </c>
+      <c r="G162" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" t="s">
         <v>220</v>
       </c>
-      <c r="F162" t="s">
-        <v>220</v>
-      </c>
-      <c r="G162" t="s">
-        <v>6</v>
-      </c>
-      <c r="H162" t="s">
-        <v>221</v>
-      </c>
       <c r="I162" t="s">
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M162" t="s">
         <v>27</v>
@@ -4917,19 +4914,19 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -4938,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M163" t="s">
         <v>27</v>
@@ -4955,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M164" t="s">
         <v>27</v>
@@ -4966,19 +4963,19 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -4987,7 +4984,7 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M165" t="s">
         <v>27</v>
@@ -5004,7 +5001,7 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M166" t="s">
         <v>27</v>
@@ -5018,7 +5015,7 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M167" t="s">
         <v>27</v>
@@ -5029,31 +5026,31 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="E168" t="s">
+        <v>219</v>
+      </c>
+      <c r="F168" t="s">
+        <v>219</v>
+      </c>
+      <c r="G168" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" t="s">
         <v>220</v>
       </c>
-      <c r="F168" t="s">
-        <v>220</v>
-      </c>
-      <c r="G168" t="s">
-        <v>6</v>
-      </c>
-      <c r="H168" t="s">
-        <v>221</v>
-      </c>
       <c r="I168" t="s">
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M168" t="s">
         <v>27</v>
@@ -5064,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G169" t="s">
         <v>6</v>
@@ -5076,10 +5073,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
+        <v>282</v>
+      </c>
+      <c r="M169" t="s">
         <v>283</v>
-      </c>
-      <c r="M169" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -5087,16 +5084,16 @@
         <v>3</v>
       </c>
       <c r="H170" t="s">
+        <v>284</v>
+      </c>
+      <c r="I170" t="s">
+        <v>8</v>
+      </c>
+      <c r="L170" t="s">
         <v>285</v>
       </c>
-      <c r="I170" t="s">
-        <v>8</v>
-      </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>286</v>
-      </c>
-      <c r="M170" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -5107,10 +5104,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
+        <v>287</v>
+      </c>
+      <c r="M171" t="s">
         <v>288</v>
-      </c>
-      <c r="M171" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -5118,7 +5115,7 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M172" t="s">
         <v>159</v>
@@ -5139,7 +5136,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>159</v>
@@ -5160,10 +5157,10 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M174" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -5171,19 +5168,19 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G175" t="s">
         <v>6</v>
@@ -5192,10 +5189,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
+        <v>293</v>
+      </c>
+      <c r="M175" t="s">
         <v>294</v>
-      </c>
-      <c r="M175" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -5209,10 +5206,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
+        <v>295</v>
+      </c>
+      <c r="M176" t="s">
         <v>296</v>
-      </c>
-      <c r="M176" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -5220,19 +5217,19 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G177" t="s">
         <v>6</v>
@@ -5241,10 +5238,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
+        <v>297</v>
+      </c>
+      <c r="M177" t="s">
         <v>298</v>
-      </c>
-      <c r="M177" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -5255,10 +5252,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
+        <v>299</v>
+      </c>
+      <c r="M178" t="s">
         <v>300</v>
-      </c>
-      <c r="M178" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -5266,31 +5263,31 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="E179" t="s">
+        <v>219</v>
+      </c>
+      <c r="F179" t="s">
+        <v>219</v>
+      </c>
+      <c r="G179" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" t="s">
         <v>220</v>
       </c>
-      <c r="F179" t="s">
-        <v>220</v>
-      </c>
-      <c r="G179" t="s">
-        <v>6</v>
-      </c>
-      <c r="H179" t="s">
-        <v>221</v>
-      </c>
       <c r="I179" t="s">
         <v>8</v>
       </c>
       <c r="L179" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M179" t="s">
         <v>27</v>
@@ -5304,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M180" t="s">
         <v>27</v>
@@ -5315,31 +5312,31 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
+        <v>219</v>
+      </c>
+      <c r="F181" t="s">
+        <v>219</v>
+      </c>
+      <c r="G181" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" t="s">
         <v>220</v>
       </c>
-      <c r="F181" t="s">
-        <v>220</v>
-      </c>
-      <c r="G181" t="s">
-        <v>6</v>
-      </c>
-      <c r="H181" t="s">
-        <v>221</v>
-      </c>
       <c r="I181" t="s">
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M181" t="s">
         <v>27</v>
@@ -5353,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
+        <v>304</v>
+      </c>
+      <c r="M182" t="s">
         <v>305</v>
-      </c>
-      <c r="M182" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -5364,31 +5361,31 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="E183" t="s">
+        <v>219</v>
+      </c>
+      <c r="F183" t="s">
+        <v>219</v>
+      </c>
+      <c r="G183" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" t="s">
         <v>220</v>
       </c>
-      <c r="F183" t="s">
-        <v>220</v>
-      </c>
-      <c r="G183" t="s">
-        <v>6</v>
-      </c>
-      <c r="H183" t="s">
-        <v>221</v>
-      </c>
       <c r="I183" t="s">
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M183" t="s">
         <v>27</v>
@@ -5402,10 +5399,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
+        <v>307</v>
+      </c>
+      <c r="M184" t="s">
         <v>308</v>
-      </c>
-      <c r="M184" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,10 +5413,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
+        <v>309</v>
+      </c>
+      <c r="M185" t="s">
         <v>310</v>
-      </c>
-      <c r="M185" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -5430,10 +5427,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
+        <v>311</v>
+      </c>
+      <c r="M186" t="s">
         <v>312</v>
-      </c>
-      <c r="M186" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -5441,34 +5438,34 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="E187" t="s">
+        <v>219</v>
+      </c>
+      <c r="F187" t="s">
+        <v>219</v>
+      </c>
+      <c r="G187" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" t="s">
         <v>220</v>
       </c>
-      <c r="F187" t="s">
-        <v>220</v>
-      </c>
-      <c r="G187" t="s">
-        <v>6</v>
-      </c>
-      <c r="H187" t="s">
-        <v>221</v>
-      </c>
       <c r="I187" t="s">
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -5479,10 +5476,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -5490,19 +5487,19 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G189" t="s">
         <v>6</v>
@@ -5511,10 +5508,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
+        <v>315</v>
+      </c>
+      <c r="M189" t="s">
         <v>316</v>
-      </c>
-      <c r="M189" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -5522,19 +5519,19 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G190" t="s">
         <v>6</v>
@@ -5543,10 +5540,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M190" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -5560,10 +5557,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M191" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -5574,10 +5571,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
+        <v>319</v>
+      </c>
+      <c r="M192" t="s">
         <v>320</v>
-      </c>
-      <c r="M192" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -5585,19 +5582,19 @@
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G193" t="s">
         <v>6</v>
@@ -5606,10 +5603,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -5620,10 +5617,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
+        <v>322</v>
+      </c>
+      <c r="M194" t="s">
         <v>323</v>
-      </c>
-      <c r="M194" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -5631,34 +5628,34 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C195" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
+        <v>219</v>
+      </c>
+      <c r="F195" t="s">
+        <v>219</v>
+      </c>
+      <c r="G195" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" t="s">
         <v>220</v>
       </c>
-      <c r="F195" t="s">
-        <v>220</v>
-      </c>
-      <c r="G195" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" t="s">
-        <v>221</v>
-      </c>
       <c r="I195" t="s">
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M195" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -5669,10 +5666,10 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M196" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -5680,19 +5677,19 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G197" t="s">
         <v>6</v>
@@ -5701,10 +5698,10 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M198" t="s">
         <v>27</v>
@@ -5732,7 +5729,7 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M199" t="s">
         <v>27</v>
@@ -5743,19 +5740,19 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G200" t="s">
         <v>6</v>
@@ -5764,10 +5761,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
+        <v>329</v>
+      </c>
+      <c r="M200" t="s">
         <v>330</v>
-      </c>
-      <c r="M200" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -5778,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M201" t="s">
         <v>27</v>
@@ -5789,34 +5786,34 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G202" t="s">
         <v>6</v>
       </c>
       <c r="H202" t="s">
+        <v>332</v>
+      </c>
+      <c r="I202" t="s">
+        <v>8</v>
+      </c>
+      <c r="L202" t="s">
         <v>333</v>
       </c>
-      <c r="I202" t="s">
-        <v>8</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>334</v>
-      </c>
-      <c r="M202" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -5824,19 +5821,19 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G203" t="s">
         <v>6</v>
@@ -5845,7 +5842,7 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M203" t="s">
         <v>27</v>
@@ -5859,10 +5856,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
+        <v>336</v>
+      </c>
+      <c r="M204" t="s">
         <v>337</v>
-      </c>
-      <c r="M204" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -5873,10 +5870,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M205" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -5884,19 +5881,19 @@
         <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F206" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G206" t="s">
         <v>6</v>
@@ -5905,10 +5902,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
+        <v>339</v>
+      </c>
+      <c r="M206" t="s">
         <v>340</v>
-      </c>
-      <c r="M206" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -5922,10 +5919,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M207" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -5933,19 +5930,19 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C208" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F208" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G208" t="s">
         <v>6</v>
@@ -5954,10 +5951,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M208" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -5968,10 +5965,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
+        <v>343</v>
+      </c>
+      <c r="M209" t="s">
         <v>344</v>
-      </c>
-      <c r="M209" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -5982,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
+        <v>345</v>
+      </c>
+      <c r="M210" t="s">
         <v>346</v>
-      </c>
-      <c r="M210" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -5993,34 +5990,34 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
       </c>
       <c r="E211" t="s">
+        <v>219</v>
+      </c>
+      <c r="F211" t="s">
+        <v>219</v>
+      </c>
+      <c r="G211" t="s">
+        <v>6</v>
+      </c>
+      <c r="H211" t="s">
         <v>220</v>
       </c>
-      <c r="F211" t="s">
-        <v>220</v>
-      </c>
-      <c r="G211" t="s">
-        <v>6</v>
-      </c>
-      <c r="H211" t="s">
-        <v>221</v>
-      </c>
       <c r="I211" t="s">
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -6028,19 +6025,19 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G212" t="s">
         <v>6</v>
@@ -6049,10 +6046,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -6063,10 +6060,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -6074,19 +6071,19 @@
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G214" t="s">
         <v>6</v>
@@ -6095,10 +6092,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
+        <v>350</v>
+      </c>
+      <c r="M214" t="s">
         <v>351</v>
-      </c>
-      <c r="M214" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,10 +6106,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
+        <v>352</v>
+      </c>
+      <c r="M215" t="s">
         <v>353</v>
-      </c>
-      <c r="M215" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -6120,19 +6117,19 @@
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G216" t="s">
         <v>6</v>
@@ -6141,10 +6138,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M216" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -6158,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M217" t="s">
         <v>27</v>
@@ -6169,19 +6166,19 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G218" t="s">
         <v>6</v>
@@ -6190,10 +6187,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -6204,10 +6201,10 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>6</v>
@@ -6217,7 +6214,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>27</v>
@@ -6238,10 +6235,10 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M220" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="M220" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -6252,10 +6249,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
+        <v>360</v>
+      </c>
+      <c r="M221" t="s">
         <v>361</v>
-      </c>
-      <c r="M221" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -6263,34 +6260,34 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
+        <v>219</v>
+      </c>
+      <c r="F222" t="s">
+        <v>219</v>
+      </c>
+      <c r="G222" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" t="s">
         <v>220</v>
       </c>
-      <c r="F222" t="s">
-        <v>220</v>
-      </c>
-      <c r="G222" t="s">
-        <v>6</v>
-      </c>
-      <c r="H222" t="s">
-        <v>221</v>
-      </c>
       <c r="I222" t="s">
         <v>8</v>
       </c>
       <c r="L222" t="s">
+        <v>362</v>
+      </c>
+      <c r="M222" t="s">
         <v>363</v>
-      </c>
-      <c r="M222" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -6301,10 +6298,10 @@
         <v>8</v>
       </c>
       <c r="L223" t="s">
+        <v>364</v>
+      </c>
+      <c r="M223" t="s">
         <v>365</v>
-      </c>
-      <c r="M223" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -6312,34 +6309,34 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F224" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G224" t="s">
         <v>6</v>
       </c>
       <c r="H224" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I224" t="s">
         <v>8</v>
       </c>
       <c r="L224" t="s">
+        <v>366</v>
+      </c>
+      <c r="M224" t="s">
         <v>367</v>
-      </c>
-      <c r="M224" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,19 +6344,19 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F225" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G225" t="s">
         <v>6</v>
@@ -6368,10 +6365,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -6385,10 +6382,10 @@
         <v>8</v>
       </c>
       <c r="L226" t="s">
+        <v>369</v>
+      </c>
+      <c r="M226" t="s">
         <v>370</v>
-      </c>
-      <c r="M226" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -6396,19 +6393,19 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G227" t="s">
         <v>6</v>
@@ -6417,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
+        <v>371</v>
+      </c>
+      <c r="M227" t="s">
         <v>372</v>
-      </c>
-      <c r="M227" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -6431,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M228" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -6442,19 +6439,19 @@
         <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G229" t="s">
         <v>6</v>
@@ -6463,10 +6460,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M229" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -6474,34 +6471,34 @@
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C230" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G230" t="s">
         <v>6</v>
       </c>
       <c r="H230" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I230" t="s">
         <v>8</v>
       </c>
       <c r="L230" t="s">
+        <v>375</v>
+      </c>
+      <c r="M230" t="s">
         <v>376</v>
-      </c>
-      <c r="M230" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -6512,10 +6509,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
+        <v>377</v>
+      </c>
+      <c r="M231" t="s">
         <v>378</v>
-      </c>
-      <c r="M231" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -6523,10 +6520,10 @@
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G232" t="s">
         <v>6</v>
@@ -6535,10 +6532,10 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
+        <v>379</v>
+      </c>
+      <c r="M232" t="s">
         <v>380</v>
-      </c>
-      <c r="M232" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -6549,10 +6546,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
+        <v>381</v>
+      </c>
+      <c r="M233" t="s">
         <v>382</v>
-      </c>
-      <c r="M233" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -6560,10 +6557,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
@@ -6576,10 +6573,10 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M234" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="M234" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -6597,10 +6594,10 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -6611,7 +6608,7 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M236" t="s">
         <v>27</v>
@@ -6622,31 +6619,31 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
+        <v>219</v>
+      </c>
+      <c r="F237" t="s">
+        <v>219</v>
+      </c>
+      <c r="G237" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" t="s">
         <v>220</v>
       </c>
-      <c r="F237" t="s">
-        <v>220</v>
-      </c>
-      <c r="G237" t="s">
-        <v>6</v>
-      </c>
-      <c r="H237" t="s">
-        <v>221</v>
-      </c>
       <c r="I237" t="s">
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M237" t="s">
         <v>27</v>
@@ -6657,19 +6654,19 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F238" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G238" t="s">
         <v>6</v>
@@ -6678,10 +6675,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
+        <v>388</v>
+      </c>
+      <c r="M238" t="s">
         <v>389</v>
-      </c>
-      <c r="M238" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -6695,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M239" t="s">
         <v>27</v>
@@ -6706,19 +6703,19 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C240" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F240" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G240" t="s">
         <v>6</v>
@@ -6727,10 +6724,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
+        <v>391</v>
+      </c>
+      <c r="M240" t="s">
         <v>392</v>
-      </c>
-      <c r="M240" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -6741,10 +6738,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -6752,19 +6749,19 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C242" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F242" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G242" t="s">
         <v>6</v>
@@ -6773,10 +6770,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M242" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -6790,10 +6787,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -6801,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F244" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G244" t="s">
         <v>6</v>
@@ -6813,10 +6810,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
+        <v>396</v>
+      </c>
+      <c r="M244" t="s">
         <v>397</v>
-      </c>
-      <c r="M244" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -6824,19 +6821,19 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F245" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G245" t="s">
         <v>6</v>
@@ -6845,10 +6842,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M245" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -6859,10 +6856,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -6878,16 +6875,16 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K247" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K247" s="1" t="s">
+      <c r="L247" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -6895,19 +6892,19 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C248" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F248" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G248" t="s">
         <v>6</v>
@@ -6916,10 +6913,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
+        <v>404</v>
+      </c>
+      <c r="M248" t="s">
         <v>405</v>
-      </c>
-      <c r="M248" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -6933,10 +6930,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M249" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -6944,19 +6941,19 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C250" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -6965,10 +6962,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
+        <v>407</v>
+      </c>
+      <c r="M250" t="s">
         <v>408</v>
-      </c>
-      <c r="M250" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -6976,19 +6973,19 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F251" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G251" t="s">
         <v>6</v>
@@ -6997,10 +6994,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M251" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M252" t="s">
         <v>27</v>
@@ -7028,10 +7025,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
+        <v>411</v>
+      </c>
+      <c r="M253" t="s">
         <v>412</v>
-      </c>
-      <c r="M253" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -7039,19 +7036,19 @@
         <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C254" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F254" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G254" t="s">
         <v>6</v>
@@ -7060,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M254" t="s">
         <v>27</v>
@@ -7071,16 +7068,16 @@
         <v>3</v>
       </c>
       <c r="H255" t="s">
+        <v>414</v>
+      </c>
+      <c r="I255" t="s">
+        <v>8</v>
+      </c>
+      <c r="L255" t="s">
         <v>415</v>
       </c>
-      <c r="I255" t="s">
-        <v>8</v>
-      </c>
-      <c r="L255" t="s">
+      <c r="M255" t="s">
         <v>416</v>
-      </c>
-      <c r="M255" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -7088,10 +7085,10 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G256" t="s">
         <v>6</v>
@@ -7100,10 +7097,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
+        <v>417</v>
+      </c>
+      <c r="M256" t="s">
         <v>418</v>
-      </c>
-      <c r="M256" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -7111,16 +7108,16 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
       </c>
       <c r="L257" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M257" t="s">
         <v>159</v>
@@ -7131,7 +7128,7 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M258" t="s">
         <v>159</v>
@@ -7148,10 +7145,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
+        <v>421</v>
+      </c>
+      <c r="M259" t="s">
         <v>422</v>
-      </c>
-      <c r="M259" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -7162,7 +7159,7 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M260" t="s">
         <v>27</v>
@@ -7181,16 +7178,16 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K261" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K261" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="L261" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -7198,19 +7195,19 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G262" t="s">
         <v>6</v>
@@ -7219,10 +7216,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
+        <v>425</v>
+      </c>
+      <c r="M262" t="s">
         <v>426</v>
-      </c>
-      <c r="M262" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -7236,10 +7233,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M263" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -7247,19 +7244,19 @@
         <v>1</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>6</v>
@@ -7269,10 +7266,10 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,10 +7287,10 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -7304,10 +7301,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
+        <v>430</v>
+      </c>
+      <c r="M266" t="s">
         <v>431</v>
-      </c>
-      <c r="M266" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -7315,34 +7312,34 @@
         <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
       </c>
       <c r="E267" t="s">
+        <v>219</v>
+      </c>
+      <c r="F267" t="s">
+        <v>219</v>
+      </c>
+      <c r="G267" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" t="s">
         <v>220</v>
       </c>
-      <c r="F267" t="s">
-        <v>220</v>
-      </c>
-      <c r="G267" t="s">
-        <v>6</v>
-      </c>
-      <c r="H267" t="s">
-        <v>221</v>
-      </c>
       <c r="I267" t="s">
         <v>8</v>
       </c>
       <c r="L267" t="s">
+        <v>432</v>
+      </c>
+      <c r="M267" t="s">
         <v>433</v>
-      </c>
-      <c r="M267" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -7350,19 +7347,19 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C268" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F268" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -7371,10 +7368,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M268" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -7385,10 +7382,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
+        <v>435</v>
+      </c>
+      <c r="M269" t="s">
         <v>436</v>
-      </c>
-      <c r="M269" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -7396,31 +7393,31 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C270" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
       </c>
       <c r="E270" t="s">
+        <v>219</v>
+      </c>
+      <c r="F270" t="s">
+        <v>219</v>
+      </c>
+      <c r="G270" t="s">
+        <v>6</v>
+      </c>
+      <c r="H270" t="s">
         <v>220</v>
       </c>
-      <c r="F270" t="s">
-        <v>220</v>
-      </c>
-      <c r="G270" t="s">
-        <v>6</v>
-      </c>
-      <c r="H270" t="s">
-        <v>221</v>
-      </c>
       <c r="I270" t="s">
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M270" t="s">
         <v>27</v>
@@ -7434,10 +7431,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
+        <v>438</v>
+      </c>
+      <c r="M271" t="s">
         <v>439</v>
-      </c>
-      <c r="M271" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -7451,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M272" t="s">
         <v>27</v>
@@ -7462,19 +7459,19 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F273" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -7483,7 +7480,7 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M273" t="s">
         <v>27</v>
@@ -7497,10 +7494,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
+        <v>442</v>
+      </c>
+      <c r="M274" t="s">
         <v>443</v>
-      </c>
-      <c r="M274" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -7508,19 +7505,19 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C275" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F275" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
@@ -7529,10 +7526,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M275" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -7540,19 +7537,19 @@
         <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C276" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
       </c>
       <c r="E276" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F276" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G276" t="s">
         <v>6</v>
@@ -7561,10 +7558,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
+        <v>445</v>
+      </c>
+      <c r="M276" t="s">
         <v>446</v>
-      </c>
-      <c r="M276" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -7578,10 +7575,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M277" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -7592,10 +7589,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
+        <v>448</v>
+      </c>
+      <c r="M278" t="s">
         <v>449</v>
-      </c>
-      <c r="M278" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -7603,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C279" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F279" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G279" t="s">
         <v>6</v>
@@ -7624,10 +7621,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
+        <v>450</v>
+      </c>
+      <c r="M279" t="s">
         <v>451</v>
-      </c>
-      <c r="M279" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -7638,10 +7635,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M280" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -7652,10 +7649,10 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>6</v>
@@ -7665,10 +7662,10 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -7686,10 +7683,10 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
       <c r="L282" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -7697,19 +7694,19 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C283" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F283" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G283" t="s">
         <v>6</v>
@@ -7718,10 +7715,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
+        <v>455</v>
+      </c>
+      <c r="M283" t="s">
         <v>456</v>
-      </c>
-      <c r="M283" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -7735,10 +7732,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M284" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -7746,19 +7743,19 @@
         <v>1</v>
       </c>
       <c r="B285" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C285" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F285" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G285" t="s">
         <v>6</v>
@@ -7767,10 +7764,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>458</v>
+      </c>
+      <c r="M285" t="s">
         <v>459</v>
-      </c>
-      <c r="M285" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -7781,10 +7778,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
+        <v>460</v>
+      </c>
+      <c r="M286" t="s">
         <v>461</v>
-      </c>
-      <c r="M286" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -7792,34 +7789,34 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C287" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G287" t="s">
         <v>6</v>
       </c>
       <c r="H287" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I287" t="s">
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -7830,10 +7827,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M288" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -7841,19 +7838,19 @@
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C289" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F289" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G289" t="s">
         <v>6</v>
@@ -7862,10 +7859,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M289" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -7879,7 +7876,7 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M290" t="s">
         <v>27</v>
@@ -7890,19 +7887,19 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C291" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F291" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G291" t="s">
         <v>6</v>
@@ -7911,7 +7908,7 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M291" t="s">
         <v>27</v>
@@ -7925,10 +7922,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
+        <v>467</v>
+      </c>
+      <c r="M292" t="s">
         <v>468</v>
-      </c>
-      <c r="M292" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -7936,19 +7933,19 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C293" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F293" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G293" t="s">
         <v>6</v>
@@ -7957,10 +7954,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M293" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -7971,10 +7968,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M294" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -7988,10 +7985,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
+        <v>471</v>
+      </c>
+      <c r="M295" t="s">
         <v>472</v>
-      </c>
-      <c r="M295" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -7999,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C296" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -8011,10 +8008,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
+        <v>473</v>
+      </c>
+      <c r="M296" t="s">
         <v>474</v>
-      </c>
-      <c r="M296" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -8032,10 +8029,10 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -8043,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F298" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G298" t="s">
         <v>6</v>
@@ -8055,10 +8052,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
+        <v>476</v>
+      </c>
+      <c r="M298" t="s">
         <v>477</v>
-      </c>
-      <c r="M298" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -8072,10 +8069,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
+        <v>478</v>
+      </c>
+      <c r="M299" t="s">
         <v>479</v>
-      </c>
-      <c r="M299" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -8083,10 +8080,10 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F300" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G300" t="s">
         <v>6</v>
@@ -8095,10 +8092,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M300" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -8109,10 +8106,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M301" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -8120,10 +8117,10 @@
         <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F302" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G302" t="s">
         <v>6</v>
@@ -8132,10 +8129,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M302" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -8149,10 +8146,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
+        <v>483</v>
+      </c>
+      <c r="M303" t="s">
         <v>484</v>
-      </c>
-      <c r="M303" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -8160,10 +8157,10 @@
         <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F304" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G304" t="s">
         <v>6</v>
@@ -8172,10 +8169,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M304" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -8183,10 +8180,10 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C305" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -8195,10 +8192,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M305" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -8209,10 +8206,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M306" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -8220,10 +8217,10 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C307" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -8232,10 +8229,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
+        <v>488</v>
+      </c>
+      <c r="M307" t="s">
         <v>489</v>
-      </c>
-      <c r="M307" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -8246,10 +8243,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
+        <v>490</v>
+      </c>
+      <c r="M308" t="s">
         <v>491</v>
-      </c>
-      <c r="M308" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -8257,10 +8254,10 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C309" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -8272,7 +8269,7 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M309" t="s">
         <v>27</v>
@@ -8283,10 +8280,10 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F310" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G310" t="s">
         <v>6</v>
@@ -8295,10 +8292,10 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M310" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -8312,7 +8309,7 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M311" t="s">
         <v>27</v>
@@ -8323,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="E312" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F312" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G312" t="s">
         <v>6</v>
@@ -8335,7 +8332,7 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M312" t="s">
         <v>27</v>
@@ -8349,10 +8346,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
+        <v>496</v>
+      </c>
+      <c r="M313" t="s">
         <v>497</v>
-      </c>
-      <c r="M313" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -8360,10 +8357,10 @@
         <v>1</v>
       </c>
       <c r="E314" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F314" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
@@ -8375,7 +8372,7 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M314" t="s">
         <v>27</v>
@@ -8386,10 +8383,10 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C315" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -8398,7 +8395,7 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M315" t="s">
         <v>27</v>
@@ -8412,10 +8409,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
+        <v>500</v>
+      </c>
+      <c r="M316" t="s">
         <v>501</v>
-      </c>
-      <c r="M316" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -8423,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C317" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -8435,10 +8432,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M317" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -8449,10 +8446,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M318" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -8466,10 +8463,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M319" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -8477,10 +8474,10 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C320" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -8489,10 +8486,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
+        <v>505</v>
+      </c>
+      <c r="M320" t="s">
         <v>506</v>
-      </c>
-      <c r="M320" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -8503,10 +8500,10 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M321" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -8517,10 +8514,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -8528,10 +8525,10 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C323" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -8543,10 +8540,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M323" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -8554,10 +8551,10 @@
         <v>1</v>
       </c>
       <c r="E324" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F324" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G324" t="s">
         <v>6</v>
@@ -8566,10 +8563,10 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
+        <v>510</v>
+      </c>
+      <c r="M324" t="s">
         <v>511</v>
-      </c>
-      <c r="M324" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -8580,10 +8577,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>512</v>
+      </c>
+      <c r="M325" t="s">
         <v>513</v>
-      </c>
-      <c r="M325" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -8591,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F326" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G326" t="s">
         <v>6</v>
@@ -8603,10 +8600,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
+        <v>514</v>
+      </c>
+      <c r="M326" t="s">
         <v>515</v>
-      </c>
-      <c r="M326" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -8620,10 +8617,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M327" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -8631,10 +8628,10 @@
         <v>1</v>
       </c>
       <c r="E328" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F328" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G328" t="s">
         <v>6</v>
@@ -8643,10 +8640,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M328" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -8657,10 +8654,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
+        <v>518</v>
+      </c>
+      <c r="M329" t="s">
         <v>519</v>
-      </c>
-      <c r="M329" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -8668,10 +8665,10 @@
         <v>1</v>
       </c>
       <c r="E330" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F330" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G330" t="s">
         <v>6</v>
@@ -8680,10 +8677,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M330" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -8697,10 +8694,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M331" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -8708,10 +8705,10 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C332" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -8720,10 +8717,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
+        <v>522</v>
+      </c>
+      <c r="M332" t="s">
         <v>523</v>
-      </c>
-      <c r="M332" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -8734,10 +8731,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
+        <v>524</v>
+      </c>
+      <c r="M333" t="s">
         <v>525</v>
-      </c>
-      <c r="M333" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -8745,10 +8742,10 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C334" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -8757,10 +8754,10 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M334" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -8774,10 +8771,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M335" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -8785,10 +8782,10 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C336" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -8797,10 +8794,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M336" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,10 +8805,10 @@
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F337" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8820,10 +8817,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
+        <v>529</v>
+      </c>
+      <c r="M337" t="s">
         <v>530</v>
-      </c>
-      <c r="M337" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -8834,10 +8831,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
+        <v>531</v>
+      </c>
+      <c r="M338" t="s">
         <v>532</v>
-      </c>
-      <c r="M338" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -8845,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G339" t="s">
         <v>6</v>
@@ -8860,7 +8857,7 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M339" t="s">
         <v>27</v>
@@ -8874,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M340" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -8885,10 +8882,10 @@
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F341" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G341" t="s">
         <v>6</v>
@@ -8897,10 +8894,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M341" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -8908,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C342" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -8920,10 +8917,10 @@
         <v>8</v>
       </c>
       <c r="L342" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M342" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
